--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="119">
   <si>
     <t>anchor score</t>
   </si>
@@ -61,64 +61,64 @@
     <t>panic</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>hand</t>
@@ -736,7 +736,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
         <v>39</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3">
         <v>0.9491525423728814</v>
@@ -868,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4">
         <v>0.8888888888888888</v>
@@ -918,7 +918,7 @@
         <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5">
         <v>0.8636363636363636</v>
@@ -968,7 +968,7 @@
         <v>108</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6">
         <v>0.8346456692913385</v>
@@ -1018,7 +1018,7 @@
         <v>48</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7">
         <v>0.7777777777777778</v>
@@ -1068,7 +1068,7 @@
         <v>38</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K8">
         <v>0.775</v>
@@ -1118,7 +1118,7 @@
         <v>393</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K9">
         <v>0.7707006369426752</v>
@@ -1147,28 +1147,28 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.09523809523809523</v>
+        <v>0.01367521367521368</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>207</v>
+        <v>412</v>
       </c>
       <c r="E10">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F10">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>133</v>
+        <v>1731</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K10">
         <v>0.704225352112676</v>
@@ -1197,28 +1197,28 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01367521367521368</v>
+        <v>0.009108910891089108</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>412</v>
+        <v>605</v>
       </c>
       <c r="E11">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F11">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>1731</v>
+        <v>2502</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K11">
         <v>0.696078431372549</v>
@@ -1247,13 +1247,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.009108910891089108</v>
+        <v>0.004561403508771929</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>605</v>
+        <v>364</v>
       </c>
       <c r="E12">
         <v>0.96</v>
@@ -1265,86 +1265,62 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>2502</v>
+        <v>2837</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L12">
+        <v>60</v>
+      </c>
+      <c r="M12">
+        <v>64</v>
+      </c>
+      <c r="N12">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K12">
-        <v>0.6796536796536796</v>
-      </c>
-      <c r="L12">
+      <c r="K13">
+        <v>0.6569037656903766</v>
+      </c>
+      <c r="L13">
         <v>157</v>
       </c>
-      <c r="M12">
-        <v>165</v>
-      </c>
-      <c r="N12">
-        <v>0.95</v>
-      </c>
-      <c r="O12">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P12" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.004561403508771929</v>
-      </c>
-      <c r="C13">
-        <v>13</v>
-      </c>
-      <c r="D13">
-        <v>364</v>
-      </c>
-      <c r="E13">
-        <v>0.96</v>
-      </c>
-      <c r="F13">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>2837</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L13">
-        <v>60</v>
-      </c>
       <c r="M13">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K14">
         <v>0.6507936507936508</v>
@@ -1370,7 +1346,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K15">
         <v>0.6388888888888888</v>
@@ -1396,28 +1372,28 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="K16">
-        <v>0.5920245398773006</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L16">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>207</v>
+        <v>27</v>
       </c>
       <c r="N16">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>133</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1425,25 +1401,25 @@
         <v>33</v>
       </c>
       <c r="K17">
-        <v>0.574468085106383</v>
+        <v>0.5681818181818182</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1451,25 +1427,25 @@
         <v>34</v>
       </c>
       <c r="K18">
-        <v>0.5681818181818182</v>
+        <v>0.5676470588235294</v>
       </c>
       <c r="L18">
-        <v>50</v>
+        <v>193</v>
       </c>
       <c r="M18">
-        <v>51</v>
+        <v>193</v>
       </c>
       <c r="N18">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>38</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -2748,7 +2724,7 @@
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K68">
         <v>0.188715953307393</v>
@@ -2826,7 +2802,7 @@
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K71">
         <v>0.1831052383199623</v>
@@ -3424,7 +3400,7 @@
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K94">
         <v>0.1101003764115433</v>
